--- a/data_year/zb/对外经济贸易/同各国(地区)海关货物进出口总额/进口总额/中国从北美洲各国(地区)进口总额.xlsx
+++ b/data_year/zb/对外经济贸易/同各国(地区)海关货物进出口总额/进口总额/中国从北美洲各国(地区)进口总额.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,490 +468,285 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>375108</v>
+        <v>1492374.6</v>
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="n">
-        <v>2611959</v>
-      </c>
-      <c r="E2" t="inlineStr"/>
+        <v>11707702.7</v>
+      </c>
+      <c r="E2" t="n">
+        <v>5454.8</v>
+      </c>
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="n">
-        <v>2236315</v>
+        <v>10209873.3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>402847</v>
+        <v>2216994.7055</v>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>1.7162</v>
       </c>
       <c r="D3" t="n">
-        <v>3024125</v>
+        <v>14434693.8136</v>
       </c>
       <c r="E3" t="n">
-        <v>1046</v>
+        <v>4806.4533</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="n">
-        <v>2620223</v>
+        <v>12212890.6386</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>362688</v>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
+        <v>2321048.5</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
       <c r="D4" t="n">
-        <v>3087693</v>
+        <v>15616566.7</v>
       </c>
       <c r="E4" t="n">
-        <v>1239</v>
+        <v>5744.8</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="n">
-        <v>2723764</v>
+        <v>13289745.5</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>437449</v>
+        <v>2523697.1</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="D5" t="n">
-        <v>3826276</v>
+        <v>17765140.9</v>
       </c>
       <c r="E5" t="n">
-        <v>2217.1</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
+        <v>7213.5</v>
+      </c>
+      <c r="F5" t="inlineStr"/>
       <c r="G5" t="n">
-        <v>3386609</v>
+        <v>15234229.5</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>735299</v>
+        <v>2518201.0414</v>
       </c>
       <c r="C6" t="n">
-        <v>2.7</v>
+        <v>5.6386</v>
       </c>
       <c r="D6" t="n">
-        <v>5203014.2</v>
+        <v>18430759.8156</v>
       </c>
       <c r="E6" t="n">
-        <v>2057.8</v>
+        <v>6452.224700000001</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1.0524</v>
       </c>
       <c r="G6" t="n">
-        <v>4465654.7</v>
+        <v>15906099.8585</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>751116</v>
+        <v>2621374.9</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>31.8</v>
       </c>
       <c r="D7" t="n">
-        <v>5616226</v>
+        <v>17411303.8</v>
       </c>
       <c r="E7" t="n">
-        <v>2934</v>
+        <v>8989.799999999999</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G7" t="n">
-        <v>4862177</v>
+        <v>14780907.2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>766211.3964</v>
+        <v>1833683.4</v>
       </c>
       <c r="C8" t="n">
-        <v>1909.0826</v>
+        <v>3.6</v>
       </c>
       <c r="D8" t="n">
-        <v>6692229.152799999</v>
+        <v>15288328.5</v>
       </c>
       <c r="E8" t="n">
-        <v>3003.9729</v>
-      </c>
-      <c r="F8" t="inlineStr"/>
+        <v>10119.9</v>
+      </c>
+      <c r="F8" t="n">
+        <v>7.4</v>
+      </c>
       <c r="G8" t="n">
-        <v>5921104.700900001</v>
+        <v>13444514.2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1097913.3625</v>
+        <v>2042300.7</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
-        <v>8040775.592800001</v>
+        <v>17450191.9</v>
       </c>
       <c r="E9" t="n">
-        <v>3799.4745</v>
+        <v>13338</v>
       </c>
       <c r="F9" t="n">
-        <v>1.7703</v>
+        <v>1.1</v>
       </c>
       <c r="G9" t="n">
-        <v>6939060.9855</v>
+        <v>15394552.2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1267335.0929</v>
-      </c>
-      <c r="C10" t="n">
-        <v>8.74</v>
-      </c>
+        <v>2835940.1</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
-        <v>9406982.3632</v>
+        <v>18371458.3</v>
       </c>
       <c r="E10" t="n">
-        <v>3645.5525</v>
-      </c>
-      <c r="F10" t="inlineStr"/>
+        <v>23191.2</v>
+      </c>
+      <c r="F10" t="n">
+        <v>8.4</v>
+      </c>
       <c r="G10" t="n">
-        <v>8135992.5954</v>
+        <v>15512318.6</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1205326</v>
-      </c>
-      <c r="C11" t="inlineStr"/>
+        <v>2815209.0219</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2.6909</v>
+      </c>
       <c r="D11" t="n">
-        <v>8955790</v>
+        <v>15132203.9101</v>
       </c>
       <c r="E11" t="n">
-        <v>4426</v>
-      </c>
-      <c r="F11" t="inlineStr"/>
+        <v>27371.4908</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1.0584</v>
+      </c>
       <c r="G11" t="n">
-        <v>7746038</v>
+        <v>12289619.6481</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1492374.6</v>
-      </c>
-      <c r="C12" t="inlineStr"/>
+        <v>2206336.5296</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.2753</v>
+      </c>
       <c r="D12" t="n">
-        <v>11707702.7</v>
+        <v>15757400.6587</v>
       </c>
       <c r="E12" t="n">
-        <v>5454.8</v>
-      </c>
-      <c r="F12" t="inlineStr"/>
+        <v>25998.9792</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.3638</v>
+      </c>
       <c r="G12" t="n">
-        <v>10209873.3</v>
+        <v>13525064.5108</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2216994.7055</v>
+        <v>3048978</v>
       </c>
       <c r="C13" t="n">
-        <v>1.7162</v>
+        <v>1</v>
       </c>
       <c r="D13" t="n">
-        <v>14434693.8136</v>
+        <v>21042885</v>
       </c>
       <c r="E13" t="n">
-        <v>4806.4533</v>
-      </c>
-      <c r="F13" t="inlineStr"/>
+        <v>23824</v>
+      </c>
+      <c r="F13" t="n">
+        <v>2</v>
+      </c>
       <c r="G13" t="n">
-        <v>12212890.6386</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>2321048.5</v>
-      </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="n">
-        <v>15616566.7</v>
-      </c>
-      <c r="E14" t="n">
-        <v>5744.8</v>
-      </c>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="n">
-        <v>13289745.5</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>2523697.1</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="D15" t="n">
-        <v>17765140.9</v>
-      </c>
-      <c r="E15" t="n">
-        <v>7213.5</v>
-      </c>
-      <c r="F15" t="inlineStr"/>
-      <c r="G15" t="n">
-        <v>15234229.5</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>2518201.0414</v>
-      </c>
-      <c r="C16" t="n">
-        <v>5.6386</v>
-      </c>
-      <c r="D16" t="n">
-        <v>18430759.8156</v>
-      </c>
-      <c r="E16" t="n">
-        <v>6452.224700000001</v>
-      </c>
-      <c r="F16" t="n">
-        <v>1.0524</v>
-      </c>
-      <c r="G16" t="n">
-        <v>15906099.8585</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>2621374.9</v>
-      </c>
-      <c r="C17" t="n">
-        <v>31.8</v>
-      </c>
-      <c r="D17" t="n">
-        <v>17411303.8</v>
-      </c>
-      <c r="E17" t="n">
-        <v>8989.799999999999</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="G17" t="n">
-        <v>14780907.2</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>1833683.4</v>
-      </c>
-      <c r="C18" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="D18" t="n">
-        <v>15288328.5</v>
-      </c>
-      <c r="E18" t="n">
-        <v>10119.9</v>
-      </c>
-      <c r="F18" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="G18" t="n">
-        <v>13444514.2</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>2042300.7</v>
-      </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="n">
-        <v>17450191.9</v>
-      </c>
-      <c r="E19" t="n">
-        <v>13338</v>
-      </c>
-      <c r="F19" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="G19" t="n">
-        <v>15394552.2</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>2835940.1</v>
-      </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="n">
-        <v>18371458.3</v>
-      </c>
-      <c r="E20" t="n">
-        <v>23191.2</v>
-      </c>
-      <c r="F20" t="n">
-        <v>8.4</v>
-      </c>
-      <c r="G20" t="n">
-        <v>15512318.6</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>2815209.0219</v>
-      </c>
-      <c r="C21" t="n">
-        <v>2.6909</v>
-      </c>
-      <c r="D21" t="n">
-        <v>15132203.9101</v>
-      </c>
-      <c r="E21" t="n">
-        <v>27371.4908</v>
-      </c>
-      <c r="F21" t="n">
-        <v>1.0584</v>
-      </c>
-      <c r="G21" t="n">
-        <v>12289619.6481</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>2206336.5296</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.2753</v>
-      </c>
-      <c r="D22" t="n">
-        <v>15757400.6587</v>
-      </c>
-      <c r="E22" t="n">
-        <v>25998.9792</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0.3638</v>
-      </c>
-      <c r="G22" t="n">
-        <v>13525064.5108</v>
+        <v>17970081</v>
       </c>
     </row>
   </sheetData>
